--- a/data/HODOR_COMPARE.xlsx
+++ b/data/HODOR_COMPARE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduard\ownCloud\ontwikkelen\github.com\GegevensVergelijker.metwijzigingen\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>COMPARENAME</t>
   </si>
@@ -735,6 +740,306 @@
   &lt;/compare&gt;</t>
   </si>
   <si>
+    <t>PAR-DDS_NNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="DDS-NNP_voorpar" analysis="Key2PAR_NNP" primary="sleutel"&gt;
+    &lt;match id="sleutel"&gt;
+	  &lt;field name="sleutel" reference-field="nnpnr" analysis-field="DDS_sleutel" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="handelsnaam"&gt;
+      &lt;field name="naam" reference-field="handelsnaam" analysis-field="Opgemaakte_naam" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="openbare-ruimte"&gt;
+      &lt;field name="adresregel_1" reference-field="corr_straat_nr" analysis-field="Straat_nr" /&gt;
+	  &lt;field name="adresregel_2" reference-field="corr_postcode_woonplaats" analysis-field="Postc_Wplts" /&gt;
+    &lt;/match&gt;
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_OPENBARERUIMTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_OPENBARERUIMTE" analysis="LVBAG_OPENBARERUIMTE" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="RUIMTEID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+	&lt;match id="ADRES"&gt;
+      &lt;field name="RUIMTE" reference-field="RUIMTENAAM" analysis-field="OPENBARERUIMTENAAM" /&gt;
+	  &lt;field name="WOONPLAATSID" reference-field="WOONPLAATSID" analysis-field="GERELATEERDEWOONPLAATS" /&gt;
+	&lt;/match&gt; 
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="OPENBARERUIMTESTATUS" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_WOONPLAATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_WOONPLAATS" analysis="LVBAG_WOONPLAATS" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="WOONPLAATSID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+	&lt;match id="ADRES"&gt;
+      &lt;field name="RUIMTE" reference-field="WOONPLAATSNAAM" analysis-field="WOONPlAATSNAAM" /&gt;
+	&lt;/match&gt; 
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="WOONPLAATSSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>ZAAKSYST-CORSA_ZAKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="CORSA_ZAKEN" analysis="ZAAKSYST_ZAKEN" primary="ZT_CODE"&gt;
+	&lt;match id="ZT_CODE"&gt;
+		&lt;field name="ZT_CODE" reference-field="ZKNR" analysis-field="Identificatie" /&gt;
+	&lt;/match&gt;
+&lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_OPENBARERUIMTE_LITTENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="LIT_BAG_OPENBARERUIMTE" analysis="LIT_LVBAG_OPENBARERUIMTE" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="RUIMTEID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+	&lt;match id="ADRES"&gt;
+      &lt;field name="RUIMTE" reference-field="RUIMTENAAM" analysis-field="OPENBARERUIMTENAAM" /&gt;
+	  &lt;field name="WOONPLAATSID" reference-field="WOONPLAATSID" analysis-field="GERELATEERDEWOONPLAATS" /&gt;
+	&lt;/match&gt; 
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="OPENBARERUIMTESTATUS" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_PAND_LITTENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="LIT_BAG_PAND" analysis="LIT_LVBAG_PAND" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="PANDID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="PANDSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="BOUWJAAR-ONDERZOEK"&gt;
+      &lt;field name="BOUWJAAR" reference-field="BOUWJAAR" analysis-field="BOUWJAAR" /&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_STANDPLAATS_LITTENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="LIT_BAG_STANDPLAATS" analysis="LIT_LVBAG_STANDPLAATS" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="STANDPLAATSID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="STANDPLAATSSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>LBAG-LVBAG_VBO_LITTENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="LIT_BAG_VBO" analysis="LIT_LVBAG_VBO" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="VERBLIJFSOBJECTID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="STATUS"&gt;
+      &lt;field name="VBOSTATUS" reference-field="STATUS_OMS" analysis-field="VERBLIJFSOBJECTSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="OPP-ONDERZOEK"&gt;
+      &lt;field name="OPPERVLAKTE" reference-field="OPPERVLAK" analysis-field="OPPERVLAKTEVERBLIJFSOBJECT" /&gt;
+    &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="HOOFDADRES"&gt;
+      &lt;field name="ADRES" reference-field="ADRESID" analysis-field="HOOFDADRES" /&gt;
+    &lt;/match&gt;
+    &lt;match id="FUNCTIES"&gt;
+      &lt;field name="FUNCTIES" reference-field="FUNCTIES" analysis-field="FUNCTIES" /&gt;
+    &lt;/match&gt;
+  &lt;/compare&gt;
+</t>
+  </si>
+  <si>
+    <t>BAG-GBA_HARLINGEN</t>
+  </si>
+  <si>
+    <t>&lt;compare reference="BAG_HARLINGEN" analysis="GBA_HARLINGEN" primary="nummeraanduidingid"&gt;
+    &lt;match id="nummeraanduidingid"&gt;
+      &lt;field name="nummeraanduidingid" reference-field="BAG_NUMMERAANDUIDING_ID" analysis-field="IDENT_NUMMERAANDUIDING" /&gt;
+    &lt;/match&gt;	
+	&lt;match id="adressseerbaarobjectid"&gt;
+      &lt;field name="adressseerbaarobjectid" reference-field="BAG_VERBLIJFSOBJECT_ID" analysis-field="IDENT_VERBLIJFPLAATS" /&gt;
+    &lt;/match&gt;	
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="POSTCODE" analysis-field="POSTCODE" /&gt;
+      &lt;field name="huisnummer" reference-field="HUISNR" analysis-field="HUISNUMMER" /&gt;
+      &lt;field name="huisletter" reference-field="HUISLT" analysis-field="HUISLETTER" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="TOEVOEGING" analysis-field="TOEVOEGING_HUISNUMMER" /&gt;
+    &lt;/match&gt;
+    &lt;match id="openbare-ruimte"&gt;
+      &lt;field name="openbareruimtenaam" reference-field="RUIMTENAAM" analysis-field="NAAM_OPENBARE_RUIMTE" /&gt;
+    &lt;/match&gt;
+    &lt;match id="woonplaats"&gt;
+      &lt;field name="woonplaatsnaam" reference-field="WOONPLAATSNAAM" analysis-field="WOONPLAATS" /&gt;
+    &lt;/match&gt;		
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-GBA_LITTENS</t>
+  </si>
+  <si>
+    <t>&lt;compare reference="BAG_LITTENS" analysis="GBA_LITTENS" primary="nummeraanduidingid"&gt;
+    &lt;match id="nummeraanduidingid"&gt;
+      &lt;field name="nummeraanduidingid" reference-field="BAG_NUMMERAANDUIDING_ID" analysis-field="IDENT_NUMMERAANDUIDING" /&gt;
+    &lt;/match&gt;	
+	&lt;match id="adressseerbaarobjectid"&gt;
+      &lt;field name="adressseerbaarobjectid" reference-field="BAG_VERBLIJFSOBJECT_ID" analysis-field="IDENT_VERBLIJFPLAATS" /&gt;
+    &lt;/match&gt;	
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="POSTCODE" analysis-field="POSTCODE" /&gt;
+      &lt;field name="huisnummer" reference-field="HUISNR" analysis-field="HUISNUMMER" /&gt;
+      &lt;field name="huisletter" reference-field="HUISLT" analysis-field="HUISLETTER" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="TOEVOEGING" analysis-field="TOEVOEGING_HUISNUMMER" /&gt;
+    &lt;/match&gt;
+    &lt;match id="openbare-ruimte"&gt;
+      &lt;field name="openbareruimtenaam" reference-field="RUIMTENAAM" analysis-field="NAAM_OPENBARE_RUIMTE" /&gt;
+    &lt;/match&gt;
+    &lt;match id="woonplaats"&gt;
+      &lt;field name="woonplaatsnaam" reference-field="WOONPLAATSNAAM" analysis-field="WOONPLAATS" /&gt;
+    &lt;/match&gt;		
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-VERGUNNINGEN</t>
+  </si>
+  <si>
+    <t>&lt;compare reference="R7.1" analysis="GVG_VERGUNNING" primary="postcode-huisnummer"&gt;
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="POSTCODE" analysis-field="postcode" /&gt;
+      &lt;field name="huisnummer" reference-field="HUISNR" analysis-field="huisnr" /&gt;
+      &lt;field name="huisletter" reference-field="HUISLT" analysis-field="huislt" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="TOEVOEGING" analysis-field="toev" /&gt;
+    &lt;/match&gt;
+    &lt;match id="openbare-ruimte"&gt;
+      &lt;field name="openbareruimtenaam" reference-field="RUIMTENAAM_BOCO" analysis-field="straat" /&gt;
+    &lt;/match&gt;
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_WOONPLAATS_LITTENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="LIT_BAG_WOONPLAATS" analysis="LIT_LVBAG_WOONPLAATS" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="WOONPLAATSID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+	&lt;match id="ADRES"&gt;
+      &lt;field name="RUIMTE" reference-field="WOONPLAATSNAAM" analysis-field="WOONPlAATSNAAM" /&gt;
+	&lt;/match&gt; 
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="WOONPLAATSSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>HARL_BAGWOZ_BIJGEBOUWEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;compare reference="HARL_BAGWOZ_WOZ_WOZVERBLIJFSOBJECTEN" analysis="HARL_BAGWOZ_BAG_BIJGEBOUWEN" primary="BAGOBJECTID"&gt;
+	&lt;match id="BAGOBJECTID"&gt;
+		&lt;field name="BAGOBJECTID" reference-field="IDENT_BAG" analysis-field="PANDID" /&gt;
+	&lt;/match&gt;
+	&lt;export&gt;
+		&lt;field name="wozobject" reference-field="wozobject" /&gt;
+		&lt;field name="aantal" reference-field="aantal" /&gt;
+		&lt;field name="STRAAT" reference-field="STRAAT" /&gt;	
+		&lt;field name="POSTCODE" reference-field="POSTCODE" /&gt;	
+		&lt;field name="BOUWJAAR" analysis-field="BOUWJAAR" /&gt;
+		&lt;field name="STATUS_OMS" analysis-field="STATUS_OMS" /&gt;
+		&lt;field name="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+		&lt;field name="DDVASTSTELLING" analysis-field="DDVASTSTELLING" /&gt;
+		&lt;field name="oppervlakte" analysis-field="oppervlakte" /&gt;  
+		&lt;field name="url" analysis-field="url" /&gt;  
+		&lt;field name="geoserver" analysis-field="geoserver" /&gt;  
+	&lt;/export&gt;	
+&lt;/compare&gt; </t>
+  </si>
+  <si>
+    <t>HARL_BAGWOZ_VERBLIJFSOBJECTEN</t>
+  </si>
+  <si>
+    <t>&lt;compare reference="HARL_BAGWOZ_WOZ_WOZVERBLIJFSOBJECTEN" analysis="HARL_BAGWOZ_BAG_VERBLIJFSOBJECTEN" primary="BAGOBJECTID"&gt;
+	&lt;match id="BAGOBJECTID"&gt;
+		&lt;field name="BAGOBJECTID" reference-field="IDENT_BAG" analysis-field="VERBLIJFSOBJECTID" /&gt;
+	&lt;/match&gt;
+	&lt;export&gt;
+		&lt;field name="wozobject" reference-field="wozobject" /&gt;
+		&lt;field name="aantal" reference-field="aantal" /&gt;
+		&lt;field name="STRAAT" reference-field="STRAAT" /&gt;	
+		&lt;field name="POSTCODE" reference-field="POSTCODE" /&gt;	
+		&lt;field name="OPPERVLAK" analysis-field="OPPERVLAK" /&gt;
+		&lt;field name="STATUS_OMS" analysis-field="STATUS_OMS" /&gt;
+		&lt;field name="RUIMTENAAM" analysis-field="RUIMTENAAM" /&gt;
+		&lt;field name="HUISNR" analysis-field="HUISNR" /&gt;
+		&lt;field name="HUISLT" analysis-field="HUISLT" /&gt;
+		&lt;field name="TOEVOEGING" analysis-field="TOEVOEGING" /&gt;
+		&lt;field name="AANDUIDING" analysis-field="AANDUIDING" /&gt;
+		&lt;field name="POSTCODE" analysis-field="POSTCODE" /&gt;
+		&lt;field name="WOONPLAATS" analysis-field="WOONPLAATS" /&gt;
+		&lt;field name="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+		&lt;field name="DDVASTSTELLING" analysis-field="DDVASTSTELLING" /&gt;
+	&lt;/export&gt;	
+&lt;/compare&gt;</t>
+  </si>
+  <si>
     <t>KANA-DDS</t>
   </si>
   <si>
@@ -757,6 +1062,55 @@
 	&lt;/match&gt;		
 &lt;/compare&gt;
 </t>
+  </si>
+  <si>
+    <t>GVG-DDS_NNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="DDS_NNP" analysis="GVG_NNP" primary="KVK"&gt;
+        &lt;match id="KVK"&gt;
+      &lt;field name="KVK" reference-field="kvknummer" analysis-field="handelsregnr" /&gt;
+    &lt;/match&gt;
+    &lt;match id="naam"&gt;
+   &lt;field name="Handelsnaam" reference-field="hdlnam" analysis-field="naam_bl" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="CORR_POSTCODE" analysis-field="postkode" /&gt;
+      &lt;field name="huisnummer" reference-field="CORR_HUISNUMMER" analysis-field="huisnr" /&gt;
+      &lt;field name="huisletter" reference-field="CORR_LETTER" analysis-field="huislt" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="CORR_TOEVOEGING" analysis-field="huistv" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_VBO_LITTENS</t>
+  </si>
+  <si>
+    <t>PBS-K2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="PBS_PERSADR" analysis="X-K2P_NAP" primary="bsn"&gt;
+      &lt;match id="bsn"&gt;
+      &lt;field name="bsn" reference-field="SOFI_NR" analysis-field="rsofi" /&gt;
+    &lt;/match&gt;
+    &lt;match id="geslachtsnaam-geboortedatum"&gt;
+	  &lt;field name="geslachtsnaam" reference-field="NAAM_BL" analysis-field="NAAM" /&gt;
+      &lt;field name="voorvoegsel-geslachtsnaam" reference-field="VVOEG_VVG" analysis-field="nvoorvg" /&gt;
+    &lt;field name="geboortedatum" reference-field="GEBOORTEDATUM" analysis-field="GEBOORTEDATUM" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="POSTKODE" analysis-field="postcode" /&gt;
+      &lt;field name="huisnummer" reference-field="HUISNR" analysis-field="rhs" /&gt;
+      &lt;field name="huisletter" reference-field="HUISLT" analysis-field="nhsrlt" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="HUISTV" analysis-field="khsrtv" /&gt;
+    &lt;/match&gt;
+    &lt;match id="geslacht"&gt;
+      &lt;field name="geslacht" reference-field="GESLACHT" analysis-field="itype" /&gt;
+    &lt;/match&gt;  
+    &lt;!--&lt;match id="a-nummer"&gt;
+      &lt;field name="a-nummer" reference-field="ADMNUM" analysis-field="a_nummer" /&gt;
+    &lt;/match&gt;--&gt;
+  &lt;/compare&gt;</t>
   </si>
   <si>
     <t>BAGWOZ_BIJGEBOUWEN</t>
@@ -853,6 +1207,22 @@
   &lt;/compare&gt;</t>
   </si>
   <si>
+    <t>BGT-BAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_voorBGT" analysis="BGT" primary="pandid"&gt;
+    &lt;match id="pandid"&gt;
+	  &lt;field name="pandid" reference-field="PANDID" analysis-field="IDENTIFICATIEBAGPND" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="oppervlakte"&gt;
+      &lt;field name="oppervlakte" reference-field="OPPERVLAKTE" analysis-field="OPPERVLAKTE" /&gt;
+    &lt;/match&gt; 
+   /* &lt;match id="geometrie"&gt;
+      &lt;field name="geometrie" reference-field="LIGGING" analysis-field="GEOMETRIE" /&gt;
+    &lt;/match&gt;*/
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
     <t>X-NNP-DDS_CORSA_GWVreg</t>
   </si>
   <si>
@@ -878,6 +1248,22 @@
     &lt;match id="woonplaats"&gt;
       &lt;field name="woonplaatsnaam" reference-field="Woonplaats_U" analysis-field="plaats" /&gt;
     &lt;/match&gt;		
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-GGM_ADRESSEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="GGM_ADRESSEN" analysis="R7.1" primary="nummeraanduidingid"&gt;
+    &lt;match id="nummeraanduidingid"&gt;
+      &lt;field name="nummeraanduidingid" reference-field="Identificatie" analysis-field="BAG_NUMMERAANDUIDING_ID" /&gt;
+    &lt;/match&gt;	
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="Postcode" analysis-field="POSTCODE" /&gt;
+      &lt;field name="huisnummer" reference-field="Huisnummer" analysis-field="HUISNR" /&gt;
+      &lt;field name="huisletter" reference-field="Huisletter" analysis-field="HUISLT" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="HuisnummerToevoeging" analysis-field="TOEVOEGING" /&gt;
+    &lt;/match&gt;
   &lt;/compare&gt;</t>
   </si>
   <si>
@@ -939,6 +1325,120 @@
   &lt;/compare&gt;</t>
   </si>
   <si>
+    <t>DDS-GBA_LITTENS</t>
+  </si>
+  <si>
+    <t>&lt;compare reference="GBA_LITTENS" analysis="DDS_PRS_LITTENS" primary="bsn"&gt;
+    &lt;match id="bsn"&gt;
+      &lt;field name="bsn" reference-field="BSN" analysis-field="SOFNUM" /&gt;
+    &lt;/match&gt;
+    &lt;match id="geslachtsnaam-geboortedatum-geboorteplaats"&gt;
+	  &lt;field name="voornaam" reference-field="VOORNAAM" analysis-field="GESVOR" /&gt;  
+      &lt;field name="voorvoegsel-geslachtsnaam" reference-field="VOORVOEGSEL" analysis-field="GESVVG" /&gt;	  
+      &lt;field name="geslachtsnaam" reference-field="GESLACHTSNAAM" analysis-field="GESNAM_D" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="POSTCODE" analysis-field="PKDNUM" /&gt;
+      &lt;field name="huisnummer" reference-field="HUISNUMMER" analysis-field="HUINUM" /&gt;
+      &lt;field name="huisletter" reference-field="HUISLETTER" analysis-field="HUILET" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="TOEVOEGING_HUISNUMMER" analysis-field="HUITVG" /&gt;
+    &lt;/match&gt;
+    &lt;match id="geslacht-geboortedatum"&gt;
+      &lt;field name="geslacht" reference-field="KODE_GESLACHT" analysis-field="GESAND" /&gt;
+	  &lt;field name="geboortedatum" reference-field="GEBOORTEDATUM" analysis-field="GEBDAT" /&gt;	  
+    &lt;/match&gt;	
+    &lt;match id="openbare-ruimte"&gt;
+      &lt;field name="openbareruimtenaam" reference-field="NAAM_OPENBARE_RUIMTE" analysis-field="OBRNAM_D" /&gt;
+	  &lt;field name="woonplaats" reference-field="WOONPLAATS" analysis-field="WPLNAM" /&gt;
+    &lt;/match&gt;
+    &lt;match id="a-nummer"&gt;
+      &lt;field name="a-nummer" reference-field="ADMINISTRATIENUMMER" analysis-field="ADMNUM" /&gt;
+    &lt;/match&gt;
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>DDS-GBA_HARLINGEN</t>
+  </si>
+  <si>
+    <t>&lt;compare reference="GBA_HARLINGEN" analysis="DDS_PRS_HARLINGEN" primary="bsn"&gt;
+    &lt;match id="bsn"&gt;
+      &lt;field name="bsn" reference-field="BSN" analysis-field="SOFNUM" /&gt;
+    &lt;/match&gt;
+    &lt;match id="geslachtsnaam-geboortedatum-geboorteplaats"&gt;
+	  &lt;field name="voornaam" reference-field="VOORNAAM" analysis-field="GESVOR" /&gt;  
+      &lt;field name="voorvoegsel-geslachtsnaam" reference-field="VOORVOEGSEL" analysis-field="GESVVG" /&gt;	  
+      &lt;field name="geslachtsnaam" reference-field="GESLACHTSNAAM" analysis-field="GESNAM_D" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="postcode-huisnummer"&gt;
+      &lt;field name="postcode" reference-field="POSTCODE" analysis-field="PKDNUM" /&gt;
+      &lt;field name="huisnummer" reference-field="HUISNUMMER" analysis-field="HUINUM" /&gt;
+      &lt;field name="huisletter" reference-field="HUISLETTER" analysis-field="HUILET" /&gt;
+      &lt;field name="huisnummertoevoeging" reference-field="TOEVOEGING_HUISNUMMER" analysis-field="HUITVG" /&gt;
+    &lt;/match&gt;
+    &lt;match id="geslacht-geboortedatum"&gt;
+      &lt;field name="geslacht" reference-field="KODE_GESLACHT" analysis-field="GESAND" /&gt;
+	  &lt;field name="geboortedatum" reference-field="GEBOORTEDATUM" analysis-field="GEBDAT" /&gt;	  
+    &lt;/match&gt;	
+    &lt;match id="openbare-ruimte"&gt;
+      &lt;field name="openbareruimtenaam" reference-field="NAAM_OPENBARE_RUIMTE" analysis-field="OBRNAM_D" /&gt;
+	  &lt;field name="woonplaats" reference-field="WOONPLAATS" analysis-field="WPLNAM" /&gt;
+    &lt;/match&gt;
+    &lt;match id="a-nummer"&gt;
+      &lt;field name="a-nummer" reference-field="ADMINISTRATIENUMMER" analysis-field="ADMNUM" /&gt;
+    &lt;/match&gt;
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_ADRES_LITTENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="LIT_BAG_ADRES" analysis="LIT_LVBAG_ADRES" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="ADRESID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+	&lt;match id="ADRES"&gt;
+      &lt;field name="RUIMTE" reference-field="RUIMTENAAM" analysis-field="OPENBARERUIMTENAAM" /&gt;
+	  &lt;field name="HUISNR" reference-field="HUISNR" analysis-field="HUISNUMMER" /&gt;
+	  &lt;field name="HUISLT" reference-field="HUISLT" analysis-field="HUISLETTER" /&gt;
+	  &lt;field name="TOEVOEGING" reference-field="TOEVOEGING" analysis-field="HUISNUMMERTOEVOEGING" /&gt;
+	&lt;/match&gt; 
+	&lt;match id="POSTCODE-WOONPLAATS"&gt;
+      &lt;field name="POSTCODE" reference-field="POSTCODE" analysis-field="POSTCODE" /&gt;
+      &lt;field name="WOONPLAATS" reference-field="WOONPLAATSNAAM" analysis-field="WOONPLAATSNAAM" /&gt;	  
+    &lt;/match&gt; 
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="NUMMERAANDUIDINGSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_LIGPLAATS_LITTENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="LIT_BAG_LIGPLAATS" analysis="LIT_LVBAG_LIGPLAATS" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="LIGPLAATSID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="LIGPLAATSSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
     <t>A-Datakwaliteit DDS-WOZ</t>
   </si>
   <si>
@@ -968,6 +1468,125 @@
     &lt;match id="a-nummer"&gt;
       &lt;field name="a-nummer" reference-field="ADMNUM" analysis-field="a_nummer" /&gt;
     &lt;/match&gt;
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_VBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_VBO" analysis="LVBAG_VBO" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="VERBLIJFSOBJECTID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="STATUS"&gt;
+      &lt;field name="VBOSTATUS" reference-field="STATUS_OMS" analysis-field="VERBLIJFSOBJECTSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="OPP-ONDERZOEK"&gt;
+      &lt;field name="OPPERVLAKTE" reference-field="OPPERVLAK" analysis-field="OPPERVLAKTEVERBLIJFSOBJECT" /&gt;
+    &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="HOOFDADRES"&gt;
+      &lt;field name="ADRES" reference-field="ADRESID" analysis-field="HOOFDADRES" /&gt;
+    &lt;/match&gt;
+    &lt;match id="FUNCTIES"&gt;
+      &lt;field name="FUNCTIES" reference-field="FUNCTIES" analysis-field="FUNCTIES" /&gt;
+    &lt;/match&gt;
+  &lt;/compare&gt;
+</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_PAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_PAND" analysis="LVBAG_PAND" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="PANDID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="PANDSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="BOUWJAAR-ONDERZOEK"&gt;
+      &lt;field name="BOUWJAAR" reference-field="BOUWJAAR" analysis-field="BOUWJAAR" /&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_LIGPLAATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_LIGPLAATS" analysis="LVBAG_LIGPLAATS" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="LIGPLAATSID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="LIGPLAATSSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_STANDPLAATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_STANDPLAATS" analysis="LVBAG_STANDPLAATS" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="STANDPLAATSID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="STANDPLAATSSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
+  &lt;/compare&gt;</t>
+  </si>
+  <si>
+    <t>BAG-LVBAG_ADRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;compare reference="BAG_ADRES" analysis="LVBAG_ADRES" primary="IDENTIFICATIE"&gt;
+    &lt;match id="IDENTIFICATIE"&gt;
+	  &lt;field name="IDENTIFICATIE" reference-field="ADRESID" analysis-field="IDENTIFICATIE" /&gt;
+    &lt;/match&gt;  
+	&lt;match id="ADRES"&gt;
+      &lt;field name="RUIMTE" reference-field="RUIMTENAAM" analysis-field="OPENBARERUIMTENAAM" /&gt;
+	  &lt;field name="HUISNR" reference-field="HUISNR" analysis-field="HUISNUMMER" /&gt;
+	  &lt;field name="HUISLT" reference-field="HUISLT" analysis-field="HUISLETTER" /&gt;
+	  &lt;field name="TOEVOEGING" reference-field="TOEVOEGING" analysis-field="HUISNUMMERTOEVOEGING" /&gt;
+	&lt;/match&gt; 
+	&lt;match id="POSTCODE-WOONPLAATS"&gt;
+      &lt;field name="POSTCODE" reference-field="POSTCODE" analysis-field="POSTCODE" /&gt;
+      &lt;field name="WOONPLAATS" reference-field="WOONPLAATSNAAM" analysis-field="WOONPLAATSNAAM" /&gt;	  
+    &lt;/match&gt; 
+    &lt;match id="DOCUMENT"&gt;
+      &lt;field name="DOCUMENT" reference-field="DOCUMENTNUMMER" analysis-field="DOCUMENTNUMMER" /&gt;
+      &lt;field name="DATUM" reference-field="DDINGANG" analysis-field="DDINGANG" /&gt;
+    &lt;/match&gt; 
+	&lt;match id="STATUS"&gt;
+      &lt;field name="STATUS" reference-field="STATUS_OMS" analysis-field="NUMMERAANDUIDINGSTATUS" /&gt;
+    &lt;/match&gt; 
+    &lt;match id="ONDERZOEK"&gt;
+	  &lt;field name="ONDERZOEK" reference-field="INDONDERZOEK" analysis-field="INONDERZOEK" /&gt;
+    &lt;/match&gt; 
   &lt;/compare&gt;</t>
   </si>
 </sst>
@@ -1050,8 +1669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C37" totalsRowShown="0">
-  <autoFilter ref="A1:C37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C65" totalsRowShown="0">
+  <autoFilter ref="A1:C65"/>
   <tableColumns count="3">
     <tableColumn id="1" name="COMPARENAME"/>
     <tableColumn id="2" name="CONFIG"/>
@@ -1078,7 +1697,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1090,7 +1709,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1361,16 +1980,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.25" customWidth="1"/>
+    <col min="1" max="1" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1458,7 +2079,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1480,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1491,7 +2112,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1502,7 +2123,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1513,7 +2134,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1524,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1535,7 +2156,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1546,7 +2167,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1557,7 +2178,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1667,7 +2288,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1678,7 +2299,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1689,7 +2310,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1700,7 +2321,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1711,7 +2332,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1722,7 +2343,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1733,7 +2354,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1744,7 +2365,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1755,7 +2376,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1766,7 +2387,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1780,11 +2401,318 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>